--- a/upload/index.xlsx
+++ b/upload/index.xlsx
@@ -1,42 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409A632-3935-4F6C-AF72-85A95B3A446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20831" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X4</t>
@@ -99,127 +85,437 @@
     <t>X23</t>
   </si>
   <si>
-    <t>84..84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杭州2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宁波2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温州2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘉兴2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>湖州2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绍兴2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金华2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衢州2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舟山2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台州2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽水2010</t>
   </si>
   <si>
     <t>杭州2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宁波2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温州2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘉兴2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>湖州2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绍兴2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金华2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衢州2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舟山2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽水2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台州2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丽水2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -227,24 +523,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -328,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -502,29 +1084,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -595,9 +1172,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>6304.9</v>
@@ -669,9 +1246,9 @@
         <v>33772</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>4624</v>
@@ -692,7 +1269,7 @@
         <v>59.6</v>
       </c>
       <c r="H3">
-        <v>158.30000000000001</v>
+        <v>158.3</v>
       </c>
       <c r="I3">
         <v>50.4</v>
@@ -704,7 +1281,7 @@
         <v>43.7</v>
       </c>
       <c r="L3">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="M3">
         <v>198</v>
@@ -743,9 +1320,9 @@
         <v>34905</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>3487.1</v>
@@ -754,7 +1331,7 @@
         <v>317.3</v>
       </c>
       <c r="D4">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="E4">
         <v>21115</v>
@@ -763,13 +1340,13 @@
         <v>11.3</v>
       </c>
       <c r="G4">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H4">
         <v>174.17</v>
       </c>
       <c r="I4">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="J4">
         <v>51.4</v>
@@ -808,7 +1385,7 @@
         <v>883</v>
       </c>
       <c r="V4">
-        <v>65.819999999999993</v>
+        <v>65.82</v>
       </c>
       <c r="W4">
         <v>75.2</v>
@@ -817,18 +1394,18 @@
         <v>34417</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>3070.1</v>
       </c>
       <c r="C5">
-        <v>280.60000000000002</v>
+        <v>280.6</v>
       </c>
       <c r="D5">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="E5">
         <v>22643</v>
@@ -852,7 +1429,7 @@
         <v>46.3</v>
       </c>
       <c r="L5">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="M5">
         <v>56</v>
@@ -881,8 +1458,8 @@
       <c r="U5">
         <v>825</v>
       </c>
-      <c r="V5" t="s">
-        <v>23</v>
+      <c r="V5">
+        <v>84.84</v>
       </c>
       <c r="W5">
         <v>100</v>
@@ -891,9 +1468,9 @@
         <v>11955</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>2855.7</v>
@@ -902,7 +1479,7 @@
         <v>205.6</v>
       </c>
       <c r="D6">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="E6">
         <v>12585.3</v>
@@ -965,9 +1542,9 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>3436.4</v>
@@ -1021,7 +1598,7 @@
         <v>0.76</v>
       </c>
       <c r="S7">
-        <v>1253.5999999999999</v>
+        <v>1253.6</v>
       </c>
       <c r="T7">
         <v>63770</v>
@@ -1030,7 +1607,7 @@
         <v>1085</v>
       </c>
       <c r="V7">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="W7">
         <v>100</v>
@@ -1039,9 +1616,9 @@
         <v>17869</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>2882.7</v>
@@ -1071,7 +1648,7 @@
         <v>41.2</v>
       </c>
       <c r="K8">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="L8">
         <v>43.4</v>
@@ -1113,9 +1690,9 @@
         <v>29881</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>1639.3</v>
@@ -1133,7 +1710,7 @@
         <v>12.6</v>
       </c>
       <c r="G9">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="H9">
         <v>31.14</v>
@@ -1160,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="P9">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="Q9">
         <v>845</v>
@@ -1187,12 +1764,12 @@
         <v>11282</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>2113.3000000000002</v>
+        <v>2113.3</v>
       </c>
       <c r="C10">
         <v>133.1</v>
@@ -1213,7 +1790,7 @@
         <v>44.54</v>
       </c>
       <c r="I10">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="J10">
         <v>41.9</v>
@@ -1261,15 +1838,15 @@
         <v>15109</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>3285.7</v>
       </c>
       <c r="C11">
-        <v>269.39999999999998</v>
+        <v>269.4</v>
       </c>
       <c r="D11">
         <v>10.3</v>
@@ -1290,7 +1867,7 @@
         <v>63.2</v>
       </c>
       <c r="J11">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="K11">
         <v>40.1</v>
@@ -1326,7 +1903,7 @@
         <v>1073</v>
       </c>
       <c r="V11">
-        <v>76.040000000000006</v>
+        <v>76.04</v>
       </c>
       <c r="W11">
         <v>96.99</v>
@@ -1335,12 +1912,12 @@
         <v>30137</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>2065.3000000000002</v>
+        <v>2065.3</v>
       </c>
       <c r="C12">
         <v>97.1</v>
@@ -1352,7 +1929,7 @@
         <v>28607.8</v>
       </c>
       <c r="F12">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="G12">
         <v>56</v>
@@ -1409,7 +1986,7 @@
         <v>5863</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +2039,7 @@
         <v>14633</v>
       </c>
       <c r="R13">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="S13">
         <v>3100.02</v>
@@ -1483,7 +2060,7 @@
         <v>34777.94</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1512,7 +2089,7 @@
         <v>52.62</v>
       </c>
       <c r="J14">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="K14">
         <v>41.2</v>
@@ -1548,21 +2125,21 @@
         <v>1799</v>
       </c>
       <c r="V14">
-        <v>72.849999999999994</v>
+        <v>72.85</v>
       </c>
       <c r="W14">
         <v>100</v>
       </c>
       <c r="X14">
-        <v>28745.200000000001</v>
+        <v>28745.2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15">
-        <v>4886.6000000000004</v>
+        <v>4886.6</v>
       </c>
       <c r="C15">
         <v>375.2</v>
@@ -1583,10 +2160,10 @@
         <v>212.37</v>
       </c>
       <c r="I15">
-        <v>64.180000000000007</v>
+        <v>64.18</v>
       </c>
       <c r="J15">
-        <v>65.900000000000006</v>
+        <v>65.9</v>
       </c>
       <c r="K15">
         <v>36.1</v>
@@ -1625,13 +2202,13 @@
         <v>71.36</v>
       </c>
       <c r="W15">
-        <v>65.180000000000007</v>
+        <v>65.18</v>
       </c>
       <c r="X15">
-        <v>34719.370000000003</v>
+        <v>34719.37</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1705,12 +2282,12 @@
         <v>12159.64</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
-        <v>4190.8999999999996</v>
+        <v>4190.9</v>
       </c>
       <c r="C17">
         <v>253.6</v>
@@ -1776,15 +2353,15 @@
         <v>100</v>
       </c>
       <c r="X17">
-        <v>9996.2800000000007</v>
+        <v>9996.28</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18">
-        <v>4865.8999999999996</v>
+        <v>4865.9</v>
       </c>
       <c r="C18">
         <v>399.6</v>
@@ -1811,7 +2388,7 @@
         <v>66.8</v>
       </c>
       <c r="K18">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="L18">
         <v>0.4</v>
@@ -1850,15 +2427,15 @@
         <v>100</v>
       </c>
       <c r="X18">
-        <v>17906.810000000001</v>
+        <v>17906.81</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
-        <v>4105.1000000000004</v>
+        <v>4105.1</v>
       </c>
       <c r="C19">
         <v>317.2</v>
@@ -1873,7 +2450,7 @@
         <v>14.1</v>
       </c>
       <c r="G19">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="H19">
         <v>103.13</v>
@@ -1882,7 +2459,7 @@
         <v>61.99</v>
       </c>
       <c r="J19">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="K19">
         <v>35.5</v>
@@ -1927,12 +2504,12 @@
         <v>30695.38</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="B20">
-        <v>2516.6999999999998</v>
+        <v>2516.7</v>
       </c>
       <c r="C20">
         <v>117.2</v>
@@ -1947,7 +2524,7 @@
         <v>13.6</v>
       </c>
       <c r="G20">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H20">
         <v>36.81</v>
@@ -2001,7 +2578,7 @@
         <v>11511.22</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2075,12 +2652,12 @@
         <v>15593.71</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>4468.8999999999996</v>
+        <v>4468.9</v>
       </c>
       <c r="C22">
         <v>352.2</v>
@@ -2149,24 +2726,24 @@
         <v>30609.55</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>3561.4</v>
       </c>
       <c r="C23">
-        <v>132.30000000000001</v>
+        <v>132.3</v>
       </c>
       <c r="D23">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="E23">
         <v>33631</v>
       </c>
       <c r="F23">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="G23">
         <v>54.4</v>
@@ -2224,8 +2801,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>